--- a/Output/AllModels_SensitivityBarriersFacilitators_12000.xlsx
+++ b/Output/AllModels_SensitivityBarriersFacilitators_12000.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2C7793-D5C1-471A-9EE5-8E61C5211B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56402956-DAD3-49AA-9819-DC6CF31FADAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -842,18 +855,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -924,7 +940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -941,18 +957,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,6 +977,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,57 +1280,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="30.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1329,16 +1333,16 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1361,37 +1365,37 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="11" t="s">
         <v>265</v>
       </c>
     </row>
@@ -1431,37 +1435,37 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1493,7 +1497,7 @@
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1545,7 +1549,7 @@
       <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1574,7 +1578,7 @@
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1830,37 +1834,37 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="16" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2164,37 +2168,37 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="16" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2444,37 +2448,37 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="16" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2482,28 +2486,28 @@
       <c r="A37" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
@@ -2524,19 +2528,10 @@
       <c r="A43" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
+  <mergeCells count="1">
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>